--- a/SchedulingData/dynamic13/pso/scheduling2_14.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_14.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>223.34</v>
+        <v>217.9</v>
       </c>
       <c r="D2" t="n">
-        <v>285.22</v>
+        <v>281.78</v>
       </c>
       <c r="E2" t="n">
-        <v>13.588</v>
+        <v>14.452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>239.46</v>
+        <v>233.38</v>
       </c>
       <c r="D3" t="n">
-        <v>294.96</v>
+        <v>322.58</v>
       </c>
       <c r="E3" t="n">
-        <v>13.184</v>
+        <v>9.552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>294.96</v>
+        <v>322.58</v>
       </c>
       <c r="D4" t="n">
-        <v>347.8</v>
+        <v>371.96</v>
       </c>
       <c r="E4" t="n">
-        <v>9.039999999999999</v>
+        <v>6.744</v>
       </c>
     </row>
     <row r="5">
@@ -523,155 +523,155 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>265.14</v>
+        <v>205.92</v>
       </c>
       <c r="D5" t="n">
-        <v>331.12</v>
+        <v>268.56</v>
       </c>
       <c r="E5" t="n">
-        <v>13.508</v>
+        <v>13.144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>285.22</v>
+        <v>281.78</v>
       </c>
       <c r="D6" t="n">
-        <v>332.32</v>
+        <v>345.74</v>
       </c>
       <c r="E6" t="n">
-        <v>10.508</v>
+        <v>10.196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>224.26</v>
+        <v>345.74</v>
       </c>
       <c r="D7" t="n">
-        <v>260.52</v>
+        <v>390.36</v>
       </c>
       <c r="E7" t="n">
-        <v>14.088</v>
+        <v>7.864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>260.52</v>
+        <v>209.92</v>
       </c>
       <c r="D8" t="n">
-        <v>328.26</v>
+        <v>251.22</v>
       </c>
       <c r="E8" t="n">
-        <v>9.944000000000001</v>
+        <v>12.548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>332.32</v>
+        <v>217.18</v>
       </c>
       <c r="D9" t="n">
-        <v>384.2</v>
+        <v>257.74</v>
       </c>
       <c r="E9" t="n">
-        <v>7.44</v>
+        <v>12.416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>239.18</v>
+        <v>262.32</v>
       </c>
       <c r="D10" t="n">
-        <v>303.66</v>
+        <v>308.48</v>
       </c>
       <c r="E10" t="n">
-        <v>11.764</v>
+        <v>11.432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>331.12</v>
+        <v>371.96</v>
       </c>
       <c r="D11" t="n">
-        <v>388.12</v>
+        <v>410.16</v>
       </c>
       <c r="E11" t="n">
-        <v>9.428000000000001</v>
+        <v>3.564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>388.12</v>
+        <v>257.74</v>
       </c>
       <c r="D12" t="n">
-        <v>431.34</v>
+        <v>296.4</v>
       </c>
       <c r="E12" t="n">
-        <v>6.236</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -679,51 +679,51 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>234.02</v>
+        <v>296.4</v>
       </c>
       <c r="D13" t="n">
-        <v>289.12</v>
+        <v>356.4</v>
       </c>
       <c r="E13" t="n">
-        <v>11.708</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>347.8</v>
+        <v>251.22</v>
       </c>
       <c r="D14" t="n">
-        <v>405.3</v>
+        <v>330.7</v>
       </c>
       <c r="E14" t="n">
-        <v>6.88</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>303.66</v>
+        <v>330.7</v>
       </c>
       <c r="D15" t="n">
-        <v>356.36</v>
+        <v>371.1</v>
       </c>
       <c r="E15" t="n">
-        <v>8.124000000000001</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="16">
@@ -732,269 +732,269 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>356.36</v>
+        <v>356.4</v>
       </c>
       <c r="D16" t="n">
-        <v>415.62</v>
+        <v>403.48</v>
       </c>
       <c r="E16" t="n">
-        <v>4.328</v>
+        <v>2.232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>431.34</v>
+        <v>308.48</v>
       </c>
       <c r="D17" t="n">
-        <v>461.5</v>
+        <v>374.3</v>
       </c>
       <c r="E17" t="n">
-        <v>3.86</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>415.62</v>
+        <v>374.3</v>
       </c>
       <c r="D18" t="n">
-        <v>468.32</v>
+        <v>412.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6879999999999999</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>468.32</v>
+        <v>390.36</v>
       </c>
       <c r="D19" t="n">
-        <v>573.34</v>
+        <v>452.76</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>4.224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>573.34</v>
+        <v>371.1</v>
       </c>
       <c r="D20" t="n">
-        <v>629.0599999999999</v>
+        <v>440.08</v>
       </c>
       <c r="E20" t="n">
-        <v>27.088</v>
+        <v>4.012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>629.0599999999999</v>
+        <v>268.56</v>
       </c>
       <c r="D21" t="n">
-        <v>681.1799999999999</v>
+        <v>355.16</v>
       </c>
       <c r="E21" t="n">
-        <v>24.496</v>
+        <v>9.064</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>328.26</v>
+        <v>412.1</v>
       </c>
       <c r="D22" t="n">
-        <v>374.46</v>
+        <v>468.08</v>
       </c>
       <c r="E22" t="n">
-        <v>6.944</v>
+        <v>1.832</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>384.2</v>
+        <v>468.08</v>
       </c>
       <c r="D23" t="n">
-        <v>436.5</v>
+        <v>546.22</v>
       </c>
       <c r="E23" t="n">
-        <v>4.32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>405.3</v>
+        <v>403.48</v>
       </c>
       <c r="D24" t="n">
-        <v>444.68</v>
+        <v>475.82</v>
       </c>
       <c r="E24" t="n">
-        <v>4.072</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>444.68</v>
+        <v>475.82</v>
       </c>
       <c r="D25" t="n">
-        <v>494</v>
+        <v>531.22</v>
       </c>
       <c r="E25" t="n">
-        <v>1.74</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>494</v>
+        <v>355.16</v>
       </c>
       <c r="D26" t="n">
-        <v>587.12</v>
+        <v>390.22</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>6.688</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>374.46</v>
+        <v>531.22</v>
       </c>
       <c r="D27" t="n">
-        <v>438.92</v>
+        <v>586.54</v>
       </c>
       <c r="E27" t="n">
-        <v>4.568</v>
+        <v>24.228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>587.12</v>
+        <v>440.08</v>
       </c>
       <c r="D28" t="n">
-        <v>625.92</v>
+        <v>482.2</v>
       </c>
       <c r="E28" t="n">
-        <v>26.82</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>289.12</v>
+        <v>482.2</v>
       </c>
       <c r="D29" t="n">
-        <v>349.64</v>
+        <v>561.16</v>
       </c>
       <c r="E29" t="n">
-        <v>8.276</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>349.64</v>
+        <v>452.76</v>
       </c>
       <c r="D30" t="n">
-        <v>413.64</v>
+        <v>506.96</v>
       </c>
       <c r="E30" t="n">
-        <v>4.976</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>625.92</v>
+        <v>506.96</v>
       </c>
       <c r="D31" t="n">
-        <v>665.4400000000001</v>
+        <v>591.71</v>
       </c>
       <c r="E31" t="n">
-        <v>24.488</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1036,55 +1036,55 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>461.5</v>
+        <v>390.22</v>
       </c>
       <c r="D32" t="n">
-        <v>495.98</v>
+        <v>445.32</v>
       </c>
       <c r="E32" t="n">
-        <v>1.052</v>
+        <v>4.268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>495.98</v>
+        <v>586.54</v>
       </c>
       <c r="D33" t="n">
-        <v>565.78</v>
+        <v>628.64</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>21.148</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>565.78</v>
+        <v>410.16</v>
       </c>
       <c r="D34" t="n">
-        <v>629.74</v>
+        <v>455.32</v>
       </c>
       <c r="E34" t="n">
-        <v>27.264</v>
+        <v>1.188</v>
       </c>
     </row>
     <row r="35">
@@ -1093,36 +1093,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>438.92</v>
+        <v>455.32</v>
       </c>
       <c r="D35" t="n">
-        <v>483.4</v>
+        <v>529.9400000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>1.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>483.4</v>
+        <v>445.32</v>
       </c>
       <c r="D36" t="n">
-        <v>546.88</v>
+        <v>509.84</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>1.936</v>
       </c>
     </row>
     <row r="37">
@@ -1131,36 +1131,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>629.74</v>
+        <v>509.84</v>
       </c>
       <c r="D37" t="n">
-        <v>696.64</v>
+        <v>602.5700000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>25.184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>546.88</v>
+        <v>602.5700000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>599.38</v>
+        <v>658.49</v>
       </c>
       <c r="E38" t="n">
-        <v>26.92</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>599.38</v>
+        <v>529.9400000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>649.8</v>
+        <v>605.1</v>
       </c>
       <c r="E39" t="n">
-        <v>24.008</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>436.5</v>
+        <v>628.64</v>
       </c>
       <c r="D40" t="n">
-        <v>486.2</v>
+        <v>669.9</v>
       </c>
       <c r="E40" t="n">
-        <v>1.46</v>
+        <v>18.652</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>486.2</v>
+        <v>546.22</v>
       </c>
       <c r="D41" t="n">
-        <v>570.08</v>
+        <v>618.3200000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="42">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>649.8</v>
+        <v>605.1</v>
       </c>
       <c r="D42" t="n">
-        <v>729.5599999999999</v>
+        <v>657.4</v>
       </c>
       <c r="E42" t="n">
-        <v>21.632</v>
+        <v>24.504</v>
       </c>
     </row>
   </sheetData>
